--- a/KegID App Development Status.xlsx
+++ b/KegID App Development Status.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LiveProject\KegID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdj1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" xr2:uid="{72BCE61F-98AB-4199-BA14-590537CF07C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>KegID App Development status</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Still Showig Draft messages pending</t>
-  </si>
-  <si>
     <t>Move functionality</t>
   </si>
   <si>
@@ -95,18 +92,9 @@
     <t>Dash board detail views and listing of all summary</t>
   </si>
   <si>
-    <t>Bluetooth printing and SQLite online offline mechanism</t>
-  </si>
-  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>Business login if anything I am not aware</t>
-  </si>
-  <si>
-    <t>Total Weeks</t>
-  </si>
-  <si>
     <t>Map functionality implementation for Partner locator</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
   </si>
   <si>
     <t>Printing template needs to setup</t>
-  </si>
-  <si>
-    <t>Printer Setting needs to implement</t>
   </si>
   <si>
     <t>Sharing Option for e.g AirDrop in iOS like wise</t>
@@ -133,13 +118,59 @@
   <si>
     <t>Whole App UI still needs to make it generic and theme base
  like font size, color, style,pop up and many more</t>
+  </si>
+  <si>
+    <t>KegHeld into Dashboad Parner manythings needs to address</t>
+  </si>
+  <si>
+    <t>Time in Weeks</t>
+  </si>
+  <si>
+    <t>Total Time:</t>
+  </si>
+  <si>
+    <t>Note :</t>
+  </si>
+  <si>
+    <t>If any tast may required RnD then timeline might be extend</t>
+  </si>
+  <si>
+    <t>Work offline</t>
+  </si>
+  <si>
+    <t>Bluetooth printing mechanism</t>
+  </si>
+  <si>
+    <t>Still PDF Generating is missing</t>
+  </si>
+  <si>
+    <t>Some of the color code needs to address 
+for e.g. Listview selected item BG color etc…</t>
+  </si>
+  <si>
+    <t>Resilient network services (needs to implement sercvice call mechanisam)</t>
+  </si>
+  <si>
+    <t>Fast response for our users (Cashing needs to implement)</t>
+  </si>
+  <si>
+    <t>Code Optimization (code clean up, making generic function)</t>
+  </si>
+  <si>
+    <t>Handling  errors</t>
+  </si>
+  <si>
+    <t>Fill To Oder functionality</t>
+  </si>
+  <si>
+    <t>1.5 Months (Approx)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +194,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C484E"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3C484E"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -194,11 +246,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,56 +578,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E49D46-2C86-4BA3-8F66-C3ABD48BE545}">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.6">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -581,11 +648,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -598,13 +665,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -612,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -620,7 +684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -628,7 +692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
@@ -636,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
@@ -644,262 +708,324 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16">
-        <v>2</v>
+      <c r="B16" s="2">
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2">
-        <f>SUM(B5:B20)</f>
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
       <c r="F24" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="C28" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="2:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="C36" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="C38" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
